--- a/Cheques_Terceros.xlsx
+++ b/Cheques_Terceros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="Cheques a Terceros" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,16 +446,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>005-001-000002819</v>
+        <v>005-001-000000005</v>
       </c>
       <c r="B2" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="C2">
-        <v>25500</v>
+        <v>2025</v>
       </c>
       <c r="D2" s="1">
-        <v>44718.449525462966</v>
+        <v>44734.40063657407</v>
       </c>
       <c r="E2" t="str">
         <v>MANUEL JESUS VILLEDA GOMEZ</v>
@@ -470,10 +470,10 @@
         <v>Tio (a)</v>
       </c>
       <c r="I2">
-        <v>140000</v>
+        <v>100000</v>
       </c>
       <c r="J2" t="str">
-        <v>Ahorros en otras inst. financieras</v>
+        <v>Otros (especificar en observaciones)</v>
       </c>
       <c r="K2" t="str">
         <v>Para compra de vehículo</v>
@@ -482,7 +482,7 @@
         <v>MANUEL VILLEDA</v>
       </c>
       <c r="M2" t="str">
-        <v>Prueba</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -493,28 +493,28 @@
         <v>Oficina Principal</v>
       </c>
       <c r="C3">
-        <v>25502</v>
+        <v>25500</v>
       </c>
       <c r="D3" s="1">
-        <v>44718.45202546296</v>
+        <v>44718.449525462966</v>
       </c>
       <c r="E3" t="str">
-        <v>JUAN PEREZ MENDOZA UNDEFINED</v>
+        <v>MANUEL JESUS VILLEDA GOMEZ</v>
       </c>
       <c r="F3" t="str">
-        <v>0101010101225</v>
+        <v>0401199801225</v>
       </c>
       <c r="G3" t="str">
-        <v>Inactivo</v>
+        <v>Activo</v>
       </c>
       <c r="H3" t="str">
-        <v>Hermano (a)</v>
+        <v>Tio (a)</v>
       </c>
       <c r="I3">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="J3" t="str">
-        <v>Venta de una propiedad</v>
+        <v>Ahorros en otras inst. financieras</v>
       </c>
       <c r="K3" t="str">
         <v>Para compra de vehículo</v>
@@ -523,53 +523,176 @@
         <v>MANUEL VILLEDA</v>
       </c>
       <c r="M3" t="str">
-        <v xml:space="preserve">Prueba de guardado </v>
+        <v>Prueba</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>005-001-000059919</v>
+        <v>005-001-000002819</v>
       </c>
       <c r="B4" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="C4">
-        <v>521</v>
+        <v>25502</v>
       </c>
       <c r="D4" s="1">
-        <v>44720.61607638889</v>
+        <v>44718.45202546296</v>
       </c>
       <c r="E4" t="str">
-        <v xml:space="preserve">GLORIA GARCIA  </v>
+        <v>JUAN PEREZ MENDOZA UNDEFINED</v>
       </c>
       <c r="F4" t="str">
-        <v>0420199000235</v>
+        <v>0101010101225</v>
       </c>
       <c r="G4" t="str">
         <v>Inactivo</v>
       </c>
       <c r="H4" t="str">
-        <v>Ningun parentesco</v>
+        <v>Hermano (a)</v>
       </c>
       <c r="I4">
-        <v>250000</v>
+        <v>40000</v>
       </c>
       <c r="J4" t="str">
-        <v>Préstamo de otro sujeto obligado</v>
+        <v>Venta de una propiedad</v>
       </c>
       <c r="K4" t="str">
-        <v>Por Compra o Venta de Ganado</v>
+        <v>Para compra de vehículo</v>
       </c>
       <c r="L4" t="str">
         <v>MANUEL VILLEDA</v>
       </c>
       <c r="M4" t="str">
+        <v xml:space="preserve">Prueba de guardado </v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>005-001-000059919</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Oficina Principal</v>
+      </c>
+      <c r="C5">
+        <v>521</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44720.61607638889</v>
+      </c>
+      <c r="E5" t="str">
+        <v xml:space="preserve">GLORIA GARCIA  </v>
+      </c>
+      <c r="F5" t="str">
+        <v>0420199000235</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Inactivo</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Ningun parentesco</v>
+      </c>
+      <c r="I5">
+        <v>250000</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Préstamo de otro sujeto obligado</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Por Compra o Venta de Ganado</v>
+      </c>
+      <c r="L5" t="str">
+        <v>MANUEL VILLEDA</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>005-001-000055448</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Oficina Principal</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44734.61107638889</v>
+      </c>
+      <c r="E6" t="str">
+        <v xml:space="preserve">ERICK ROBLES  </v>
+      </c>
+      <c r="F6" t="str">
+        <v>0101198000214</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Inactivo</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Ningun parentesco</v>
+      </c>
+      <c r="I6">
+        <v>250000</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Préstamo obtenido</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Para compra de inmueble</v>
+      </c>
+      <c r="L6" t="str">
+        <v>MANUEL VILLEDA</v>
+      </c>
+      <c r="M6" t="str">
+        <v>préstamo otorgado</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>005-003-000000012</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Oficina Principal</v>
+      </c>
+      <c r="C7">
+        <v>555</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44734.61372685185</v>
+      </c>
+      <c r="E7" t="str">
+        <v xml:space="preserve">ONORIA RUIZ  </v>
+      </c>
+      <c r="F7" t="str">
+        <v>0201197411254</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Inactivo</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Primo (a)</v>
+      </c>
+      <c r="I7">
+        <v>100000</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Donacion</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Para compra de inmueble</v>
+      </c>
+      <c r="L7" t="str">
+        <v>MANUEL VILLEDA</v>
+      </c>
+      <c r="M7" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M7"/>
   </ignoredErrors>
 </worksheet>
 </file>